--- a/Galen-Evals/files/questions.xlsx
+++ b/Galen-Evals/files/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen_repo/Galen-Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F441FE-8615-C64F-824F-80466DAC2EFF}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8E2273-43C0-2140-981D-86206095DB67}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -1445,14 +1445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -1506,7 +1506,7 @@
         <v>83</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D67" si="0">IF(B4=B3,1,"")</f>
+        <f t="shared" ref="D4:D44" si="0">IF(B4=B3,1,"")</f>
         <v/>
       </c>
     </row>
@@ -3681,5 +3681,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>